--- a/Trabalho Final/Tabelas/programa.xlsx
+++ b/Trabalho Final/Tabelas/programa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -935,13 +935,13 @@
   <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
